--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378998.9436631816</v>
+        <v>376293.3082743285</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221764</v>
+        <v>2629876.587221766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179435</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W2" t="n">
         <v>39.58387696184059</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34.11888750173132</v>
+      </c>
+      <c r="G3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D3" t="n">
+      <c r="H3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F3" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -832,43 +832,43 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="R4" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I4" t="n">
+      <c r="S4" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J4" t="n">
+      <c r="T4" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.977552361264268</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="S5" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="T5" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="U5" t="n">
-        <v>24.87477961344436</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G6" t="n">
         <v>39.58387696184059</v>
@@ -993,10 +993,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="G8" t="n">
         <v>39.58387696184059</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1221,52 +1221,52 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H9" t="n">
+      <c r="S9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I9" t="n">
+      <c r="T9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S10" t="n">
-        <v>24.5704967621155</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.91618947337665</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G11" t="n">
         <v>39.58387696184059</v>
@@ -1391,7 +1391,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F12" t="n">
-        <v>34.11888750173132</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G12" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1543,40 +1543,40 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>22.26949182588285</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q13" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I13" t="n">
+      <c r="R13" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J13" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9.977552361264268</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,49 +1616,49 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="S14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F17" t="n">
-        <v>38.87161743162455</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,73 +1999,73 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="D19" t="n">
+      <c r="U19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.790450447682262</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>78.68895450699577</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>51.01695088878485</v>
       </c>
     </row>
     <row r="22">
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,61 +2327,61 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2494,40 +2494,40 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2561,67 +2561,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,22 +2637,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>87.95566939920795</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,64 +2795,64 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>27.30742174879333</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>40.84115516369328</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,16 +3083,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3114,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>56.17030901074568</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>54.57755921621632</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,31 +3308,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>26.18187459043808</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>91.59698917700666</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>61.0578084525695</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>89.29749682216323</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,73 +3737,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>198.2885478252618</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>13.29999198881393</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>236.4659934602711</v>
       </c>
-      <c r="G41" t="n">
+      <c r="X41" t="n">
         <v>236.4659934602711</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>59.41639313346993</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>16.78656895264443</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>236.4659934602711</v>
@@ -3904,46 +3904,46 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3983,67 +3983,67 @@
         <v>34.86547882798917</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F44" t="n">
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G44" t="n">
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T45" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U45" t="n">
         <v>39.58387696184059</v>
@@ -4116,7 +4116,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4337,13 +4337,13 @@
         <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
@@ -4352,25 +4352,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S2" t="n">
         <v>123.1178524655551</v>
       </c>
       <c r="T2" t="n">
-        <v>83.13413836268582</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U2" t="n">
         <v>83.13413836268582</v>
       </c>
       <c r="V2" t="n">
-        <v>83.13413836268582</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y2" t="n">
         <v>3.166710156947247</v>
@@ -4386,43 +4386,43 @@
         <v>158.3355078473624</v>
       </c>
       <c r="C3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D3" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E3" t="n">
-        <v>38.38436553875449</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J3" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P3" t="n">
         <v>119.1474696551402</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H4" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I4" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J4" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4507,31 +4507,31 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D5" t="n">
         <v>3.166710156947247</v>
@@ -4568,16 +4568,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N5" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
         <v>158.3355078473624</v>
@@ -4586,31 +4586,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>68.2764642733967</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>28.29275017052741</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V5" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W5" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X5" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.166710156947247</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="6">
@@ -4632,31 +4632,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G6" t="n">
-        <v>83.13413836268582</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H6" t="n">
-        <v>43.15042425981653</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J6" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M6" t="n">
-        <v>3.166710156947247</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N6" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O6" t="n">
         <v>79.95943146291799</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C7" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D7" t="n">
-        <v>50.47982994280417</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E7" t="n">
-        <v>50.47982994280417</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F7" t="n">
-        <v>50.47982994280417</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G7" t="n">
-        <v>50.47982994280417</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H7" t="n">
-        <v>50.47982994280417</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
         <v>3.166710156947247</v>
@@ -4741,34 +4741,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S7" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T7" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U7" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V7" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W7" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X7" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y7" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F8" t="n">
         <v>135.1878417126385</v>
@@ -4823,31 +4823,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y8" t="n">
-        <v>135.1878417126385</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
@@ -4887,46 +4887,46 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M9" t="n">
-        <v>3.166710156947247</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N9" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4987,25 +4987,25 @@
         <v>50.47982994280417</v>
       </c>
       <c r="S10" t="n">
-        <v>25.66114634470771</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="11">
@@ -5027,25 +5027,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="F11" t="n">
-        <v>135.1878417126385</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G11" t="n">
-        <v>95.20412760976917</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H11" t="n">
-        <v>55.22041350689989</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M11" t="n">
         <v>79.95943146291799</v>
@@ -5103,16 +5103,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F12" t="n">
-        <v>123.8719851183408</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G12" t="n">
-        <v>83.88827101547153</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I12" t="n">
         <v>3.920842809732961</v>
@@ -5121,16 +5121,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N12" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O12" t="n">
         <v>79.95943146291799</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="C13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="D13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="E13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="F13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="G13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="H13" t="n">
-        <v>93.21247408113457</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="I13" t="n">
-        <v>53.22875997826529</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="J13" t="n">
-        <v>13.245045875396</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K13" t="n">
         <v>3.166710156947247</v>
@@ -5215,34 +5215,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C14" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D14" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E14" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F14" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G14" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H14" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
         <v>3.166710156947247</v>
@@ -5279,10 +5279,10 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M14" t="n">
         <v>79.95943146291799</v>
@@ -5297,31 +5297,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="X14" t="n">
-        <v>118.3517937444931</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="Y14" t="n">
-        <v>118.3517937444931</v>
+        <v>28.29275017052741</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166710156947247</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C15" t="n">
-        <v>3.166710156947247</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D15" t="n">
-        <v>3.166710156947247</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E15" t="n">
-        <v>3.166710156947247</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F15" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H15" t="n">
         <v>3.166710156947247</v>
@@ -5361,46 +5361,46 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="M15" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="N15" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="O15" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="M15" t="n">
-        <v>79.95943146291799</v>
-      </c>
-      <c r="N15" t="n">
-        <v>79.95943146291799</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="P15" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q15" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T15" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U15" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V15" t="n">
-        <v>43.15042425981653</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W15" t="n">
-        <v>3.166710156947247</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X15" t="n">
-        <v>3.166710156947247</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.166710156947247</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F17" t="n">
-        <v>137.2644294849704</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G17" t="n">
-        <v>92.68647758675968</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
         <v>3.530573790338288</v>
@@ -5516,16 +5516,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="L17" t="n">
         <v>47.22142444577459</v>
       </c>
-      <c r="L17" t="n">
-        <v>89.14698820604177</v>
-      </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O17" t="n">
         <v>176.5286895169144</v>
@@ -5537,28 +5537,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
         <v>3.530573790338288</v>
@@ -5595,7 +5595,7 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
         <v>47.22142444577459</v>
@@ -5604,10 +5604,10 @@
         <v>90.91227510121089</v>
       </c>
       <c r="N18" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
         <v>176.5286895169144</v>
@@ -5622,22 +5622,22 @@
         <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>87.37278572049297</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.48491238239833</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
         <v>3.530573790338288</v>
@@ -5701,22 +5701,22 @@
         <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U19" t="n">
-        <v>138.062864280609</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V19" t="n">
-        <v>138.062864280609</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W19" t="n">
-        <v>138.062864280609</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.48491238239833</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.0282188019862</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C20" t="n">
-        <v>22.57944215788615</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V20" t="n">
-        <v>509.4769954460863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W20" t="n">
-        <v>509.4769954460863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X20" t="n">
-        <v>509.4769954460863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y20" t="n">
-        <v>266.0282188019862</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>588.4532163200711</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C21" t="n">
-        <v>588.4532163200711</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="M21" t="n">
         <v>234.810827406191</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N21" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5859,22 +5859,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W21" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X21" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y21" t="n">
-        <v>588.4532163200711</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="22">
@@ -5944,13 +5944,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>509.4769954460863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>509.4769954460863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>509.4769954460863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>509.4769954460863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W23" t="n">
-        <v>752.9257720901863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X23" t="n">
-        <v>509.4769954460863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y23" t="n">
-        <v>509.4769954460863</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.4405950311615</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C24" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,13 +6072,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M24" t="n">
         <v>234.810827406191</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N24" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y24" t="n">
-        <v>816.6559320512295</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
         <v>829.5248650203655</v>
@@ -6175,22 +6175,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C26" t="n">
-        <v>518.2486856454962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D26" t="n">
-        <v>518.2486856454962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>761.6974622895962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W26" t="n">
-        <v>761.6974622895962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X26" t="n">
-        <v>761.6974622895962</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2968567456824</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>756.2968567456824</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D27" t="n">
-        <v>667.4527462414319</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6312,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>186.3493554720934</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="C30" t="n">
-        <v>186.3493554720934</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D30" t="n">
-        <v>186.3493554720934</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E30" t="n">
-        <v>186.3493554720934</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>922.8034634260976</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>922.8034634260976</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>720.6168687848635</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>720.6168687848635</v>
       </c>
       <c r="V30" t="n">
-        <v>562.4161926976942</v>
+        <v>485.4647605531208</v>
       </c>
       <c r="W30" t="n">
-        <v>562.4161926976942</v>
+        <v>485.4647605531208</v>
       </c>
       <c r="X30" t="n">
-        <v>354.5646924921614</v>
+        <v>485.4647605531208</v>
       </c>
       <c r="Y30" t="n">
-        <v>354.5646924921614</v>
+        <v>485.4647605531208</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>76.77296163243852</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C33" t="n">
-        <v>76.77296163243852</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D33" t="n">
-        <v>76.77296163243852</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.5109632681573</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>507.2873450045464</v>
       </c>
       <c r="V33" t="n">
-        <v>735.8335372470253</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="W33" t="n">
-        <v>492.3847606029253</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X33" t="n">
-        <v>284.5332603973924</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y33" t="n">
-        <v>76.77296163243852</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>266.0282188019862</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>419.9752190668252</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C36" t="n">
-        <v>419.9752190668252</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D36" t="n">
-        <v>271.040809405574</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E36" t="n">
-        <v>111.8033544001185</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>627.7355178317791</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>419.9752190668252</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7114,22 +7114,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7208,16 +7208,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.6244618379714</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="C39" t="n">
-        <v>284.6244618379714</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="D39" t="n">
-        <v>284.6244618379714</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="E39" t="n">
-        <v>284.6244618379714</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="F39" t="n">
-        <v>284.6244618379714</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>109.4806348497715</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7260,13 +7260,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7284,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>492.3847606029253</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>492.3847606029253</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.6244618379714</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7348,34 +7348,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>734.7325904206343</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="C41" t="n">
-        <v>734.7325904206343</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D41" t="n">
-        <v>734.7325904206343</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E41" t="n">
-        <v>721.298255078398</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F41" t="n">
-        <v>482.4437162296394</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>243.5891773808807</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>243.5891773808807</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>30.98726872390504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
         <v>18.91727947682168</v>
@@ -7415,46 +7415,46 @@
         <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>724.8382864425462</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.0332365851942</v>
       </c>
       <c r="P41" t="n">
         <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="S41" t="n">
-        <v>734.7325904206343</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="T41" t="n">
-        <v>734.7325904206343</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="U41" t="n">
-        <v>734.7325904206343</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="V41" t="n">
-        <v>734.7325904206343</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="W41" t="n">
-        <v>734.7325904206343</v>
+        <v>696.9178196240985</v>
       </c>
       <c r="X41" t="n">
-        <v>734.7325904206343</v>
+        <v>458.0632807753398</v>
       </c>
       <c r="Y41" t="n">
-        <v>734.7325904206343</v>
+        <v>458.0632807753398</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18.91727947682168</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="C42" t="n">
-        <v>18.91727947682168</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>271.0172404866269</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>132.2864150692424</v>
       </c>
       <c r="H42" t="n">
         <v>18.91727947682168</v>
@@ -7497,16 +7497,16 @@
         <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>374.2379454030082</v>
+        <v>608.3392789286765</v>
       </c>
       <c r="N42" t="n">
-        <v>529.119162702065</v>
+        <v>642.3680818020865</v>
       </c>
       <c r="O42" t="n">
-        <v>763.2204962277333</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
         <v>945.8639738410842</v>
@@ -7515,25 +7515,25 @@
         <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>928.9078435858878</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T42" t="n">
-        <v>928.9078435858878</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>700.6842253222769</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>465.5321170905343</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W42" t="n">
-        <v>226.6775782417756</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="X42" t="n">
-        <v>226.6775782417756</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.91727947682168</v>
+        <v>499.2491362273716</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>811.3316833508135</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>838.6458083585264</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>877.8338465507486</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5246972061849</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="S43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="T43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="U43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="V43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="W43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.8639738410842</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C44" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D44" t="n">
-        <v>123.1178524655551</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E44" t="n">
-        <v>83.13413836268582</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F44" t="n">
         <v>43.15042425981653</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H44" t="n">
         <v>3.166710156947247</v>
@@ -7649,19 +7649,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L44" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="L44" t="n">
-        <v>81.54278654139161</v>
-      </c>
       <c r="M44" t="n">
-        <v>120.7308247336138</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N44" t="n">
-        <v>158.3355078473624</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P44" t="n">
         <v>158.3355078473624</v>
@@ -7670,28 +7670,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S44" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T44" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U44" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V44" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W44" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X44" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y44" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="45">
@@ -7728,16 +7728,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L45" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M45" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N45" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O45" t="n">
         <v>79.95943146291799</v>
@@ -7752,16 +7752,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T45" t="n">
-        <v>123.1178524655551</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U45" t="n">
-        <v>83.13413836268582</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V45" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W45" t="n">
         <v>3.166710156947247</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.30602982030574</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C46" t="n">
-        <v>28.30602982030574</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D46" t="n">
-        <v>28.30602982030574</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>55.62015482801871</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>94.80819302024089</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>133.9962312124631</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>148.2571721289136</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>108.2734580260443</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U46" t="n">
-        <v>68.28974392317502</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>68.28974392317502</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W46" t="n">
-        <v>68.28974392317502</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X46" t="n">
-        <v>28.30602982030574</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.30602982030574</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
-        <v>176.5389081776</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>179.5656510478621</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>268.0827398194126</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>173.5582843761708</v>
@@ -8535,13 +8535,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>182.180121406285</v>
@@ -8550,7 +8550,7 @@
         <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
         <v>273.750943367713</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8259673720848</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>173.5582843761708</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
         <v>273.750943367713</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
@@ -9009,7 +9009,7 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -9018,13 +9018,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P15" t="n">
         <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
         <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,16 +9720,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>399.6518023927121</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>303.7892960137443</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7873861227846</v>
+        <v>165.7142402382929</v>
       </c>
       <c r="O42" t="n">
         <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
         <v>267.3975919943167</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -11385,10 +11385,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O45" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>173.5582843761708</v>
@@ -22592,19 +22592,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S2" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W2" t="n">
         <v>309.6570917555724</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,28 +22626,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.2037335653947</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22720,16 +22720,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>76.18449089043011</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>319.8175627926938</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>226.4708732943921</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="6">
@@ -22872,7 +22872,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.2037335653947</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G6" t="n">
         <v>97.75964020137005</v>
@@ -22881,10 +22881,10 @@
         <v>72.65156727465587</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>55.27774534968376</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22945,25 +22945,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>138.6379206569481</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>86.10306849051501</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>383.9598562683348</v>
       </c>
       <c r="G8" t="n">
         <v>375.7188605532945</v>
@@ -23063,10 +23063,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>136.9436276823178</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23203,7 +23203,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23227,10 +23227,10 @@
         <v>137.7095144153289</v>
       </c>
       <c r="S10" t="n">
-        <v>199.4461012748567</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23267,7 +23267,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>383.9598562683348</v>
+        <v>372.0105669137222</v>
       </c>
       <c r="G11" t="n">
         <v>375.7188605532945</v>
@@ -23279,7 +23279,7 @@
         <v>170.8920126085653</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23343,19 +23343,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F12" t="n">
-        <v>110.9503248916526</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G12" t="n">
         <v>97.75964020137005</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>78.11655673476514</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23431,16 +23431,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,16 +23455,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>199.4461012748567</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>357.8590620500362</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>372.0105669137222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,16 +23537,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23583,13 +23583,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>77.36996540850728</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>165.2992498668324</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F17" t="n">
-        <v>368.0044283100869</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G17" t="n">
         <v>371.1705651359065</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23817,10 +23817,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>106.1975949617593</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23862,10 +23862,10 @@
         <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C19" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>145.6435121988869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23941,19 +23941,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,7 +23972,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>351.4177255634863</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,7 +23981,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>78.95612594840517</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,10 +24099,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>154.6657448885195</v>
       </c>
     </row>
     <row r="22">
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>373.0723303772616</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,22 +24254,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>137.3012335147773</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24336,22 +24336,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>59.75548455249168</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24382,7 +24382,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>8.68397329741569</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,22 +24525,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>59.4893961654308</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24683,19 +24683,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,16 +24731,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24765,10 +24765,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>117.7617906445905</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>59.31667898894985</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24923,16 +24923,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24971,16 +24971,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25002,16 +25002,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>101.4747714446553</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>145.5871694786053</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25117,13 +25117,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,31 +25196,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>366.4657846212723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="36">
@@ -25230,19 +25230,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>146.5266243978776</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>53.47222321637722</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,13 +25290,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25354,10 +25354,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,16 +25400,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25448,10 +25448,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>76.28570871064113</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>22.93794741433324</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25524,10 +25524,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25567,7 +25567,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>24.98494807699674</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25588,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,31 +25625,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>184.4452938382188</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>128.8068983107365</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>368.6303780834479</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>170.4100522814404</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>178.836744054864</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>112.774975257142</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>133.265107218198</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,13 +25716,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>85.65281925991394</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,16 +25755,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>154.8966021511934</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>15.22898970064855</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25871,16 +25871,16 @@
         <v>319.8175627926938</v>
       </c>
       <c r="E44" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,7 +25910,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="45">
@@ -25992,10 +25992,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T45" t="n">
-        <v>165.2992498668324</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U45" t="n">
         <v>186.3575051191342</v>
@@ -26004,7 +26004,7 @@
         <v>193.2167101875847</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>169.854427820673</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,13 +26071,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>214.039045675708</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355290.5609397933</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355290.5609397931</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004298</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.783772988</v>
+        <v>495368.7837729881</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397932</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71053.6796537592</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="C2" t="n">
-        <v>71053.67965375917</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="D2" t="n">
-        <v>71053.67965375917</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="E2" t="n">
-        <v>71053.6796537592</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="F2" t="n">
         <v>71053.67965375919</v>
@@ -26329,31 +26329,31 @@
         <v>71731.80321071926</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="L2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.4035187994</v>
-      </c>
       <c r="N2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="O2" t="n">
-        <v>99050.37600907714</v>
+        <v>99050.37600907717</v>
       </c>
       <c r="P2" t="n">
-        <v>71053.67965375919</v>
+        <v>71053.6796537592</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="C4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="D4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="E4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="F4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="G4" t="n">
-        <v>11735.85292711539</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16411.88104199264</v>
+        <v>16801.53650439377</v>
       </c>
       <c r="P4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10134.13153405092</v>
+        <v>9856.058660301904</v>
       </c>
       <c r="C6" t="n">
-        <v>23399.59913313379</v>
+        <v>23121.52625938482</v>
       </c>
       <c r="D6" t="n">
-        <v>23399.59913313379</v>
+        <v>23121.52625938482</v>
       </c>
       <c r="E6" t="n">
-        <v>57027.19913313382</v>
+        <v>56749.12625938482</v>
       </c>
       <c r="F6" t="n">
-        <v>57027.19913313381</v>
+        <v>56749.12625938482</v>
       </c>
       <c r="G6" t="n">
-        <v>56066.09465347196</v>
+        <v>55785.31907576995</v>
       </c>
       <c r="H6" t="n">
-        <v>15399.70838927734</v>
+        <v>15007.47814373181</v>
       </c>
       <c r="I6" t="n">
-        <v>68520.27535960238</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="J6" t="n">
-        <v>58163.39145579858</v>
+        <v>57771.16121025305</v>
       </c>
       <c r="K6" t="n">
-        <v>68520.2753596024</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="L6" t="n">
-        <v>68520.27535960241</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="M6" t="n">
-        <v>68520.27535960244</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="N6" t="n">
-        <v>68520.27535960241</v>
+        <v>68128.04511405691</v>
       </c>
       <c r="O6" t="n">
-        <v>68261.36256470002</v>
+        <v>67871.70710229893</v>
       </c>
       <c r="P6" t="n">
-        <v>57027.19913313381</v>
+        <v>56749.12625938484</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M2" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N2" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M3" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>39.58387696184059</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="O5" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>39.58387696184059</v>
@@ -35255,13 +35255,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>39.58387696184059</v>
@@ -35270,7 +35270,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>39.58387696184059</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="P15" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L17" t="n">
-        <v>42.34905430330018</v>
-      </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
+        <v>42.34905430330019</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="O18" t="n">
-        <v>42.34905430330016</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,16 +36440,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>91.0829537758999</v>
-      </c>
-      <c r="M24" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37157,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37628,16 +37628,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>163.8853874227249</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>219.1673002655598</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>72.55630025847472</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>156.4456740394513</v>
+        <v>34.37252815495957</v>
       </c>
       <c r="O42" t="n">
         <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
       <c r="O45" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>39.58387696184059</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376293.3082743285</v>
+        <v>373007.8661325562</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902171.467891437</v>
+        <v>5117581.913230949</v>
       </c>
     </row>
     <row r="11">
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.977552361264268</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1057,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T10" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1455,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="13">
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.653131001028</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="S14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="15">
@@ -1692,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="16">
@@ -1780,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>10.12890827536234</v>
       </c>
       <c r="U18" t="n">
-        <v>38.87161743162454</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2160,19 +2162,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>67.21245520955647</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>51.01695088878485</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>35.40726547353844</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>40.61938961819902</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2634,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>29.79900896488263</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>127.3974220972098</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.84115516369328</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3035,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3114,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -3126,10 +3128,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>82.71243518046261</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>54.57755921621632</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,70 +3271,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>26.18187459043808</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3357,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3405,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>184.1503857182574</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,25 +3508,25 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>1.809496073036132</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3597,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>89.29749682216323</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3645,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>161.1908134018701</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3679,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>130.4655268502615</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3700,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>198.2885478252618</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>59.41639313346993</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>39.58387696184059</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.0249214997824</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
-        <v>120.7308247336138</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N2" t="n">
-        <v>158.3355078473624</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S2" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T2" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U2" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V2" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R4" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S4" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.36807964162378</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C5" t="n">
-        <v>38.38436553875449</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y5" t="n">
-        <v>118.3517937444931</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F6" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G6" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H6" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="D7" t="n">
-        <v>123.1178524655551</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="E7" t="n">
-        <v>83.13413836268582</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="F7" t="n">
-        <v>43.15042425981653</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="G7" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>70.60296187630945</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M9" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T9" t="n">
-        <v>38.38436553875449</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F11" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G11" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H11" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E12" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F12" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G12" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H12" t="n">
-        <v>3.920842809732961</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="H13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="I13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="S13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>108.260178376266</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S14" t="n">
-        <v>68.2764642733967</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T14" t="n">
-        <v>28.29275017052741</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U14" t="n">
-        <v>28.29275017052741</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V14" t="n">
-        <v>28.29275017052741</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W14" t="n">
-        <v>28.29275017052741</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X14" t="n">
-        <v>28.29275017052741</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.29275017052741</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C15" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D15" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E15" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N15" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O15" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W15" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X15" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y15" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>137.2644294849704</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C17" t="n">
-        <v>137.2644294849704</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D17" t="n">
-        <v>137.2644294849704</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E17" t="n">
-        <v>92.68647758675968</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F17" t="n">
-        <v>48.10852568854899</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>137.2644294849704</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>137.2644294849704</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>137.2644294849704</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V17" t="n">
-        <v>137.2644294849704</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W17" t="n">
-        <v>137.2644294849704</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X17" t="n">
-        <v>137.2644294849704</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y17" t="n">
-        <v>137.2644294849704</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>482.1535401227612</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>90.91227510121089</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>953.8259350304722</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>725.6023167668613</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>725.6023167668613</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>482.1535401227612</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>482.1535401227612</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>482.1535401227612</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X21" t="n">
-        <v>562.4161926976942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y21" t="n">
-        <v>510.883919072659</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="22">
@@ -5932,25 +5934,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.04605772994853</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6074,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="W24" t="n">
-        <v>55.04605772994853</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="X24" t="n">
-        <v>55.04605772994853</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="Y24" t="n">
-        <v>55.04605772994853</v>
+        <v>648.4405950311615</v>
       </c>
     </row>
     <row r="25">
@@ -6172,7 +6174,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T25" t="n">
         <v>829.5248650203655</v>
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>241.7186438601369</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>241.7186438601369</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.7186438601369</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C27" t="n">
-        <v>49.38115216564972</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D27" t="n">
-        <v>49.38115216564972</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E27" t="n">
-        <v>49.38115216564972</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F27" t="n">
-        <v>49.38115216564972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G27" t="n">
-        <v>49.38115216564972</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>317.2494235330527</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C30" t="n">
-        <v>317.2494235330527</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D30" t="n">
-        <v>317.2494235330527</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,7 +6551,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>922.8034634260976</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>922.8034634260976</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>720.6168687848635</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>720.6168687848635</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>485.4647605531208</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4647605531208</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X30" t="n">
-        <v>485.4647605531208</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y30" t="n">
-        <v>485.4647605531208</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="31">
@@ -6643,13 +6645,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>272.1352367728036</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C33" t="n">
-        <v>272.1352367728036</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D33" t="n">
-        <v>272.1352367728036</v>
+        <v>660.701031422288</v>
       </c>
       <c r="E33" t="n">
-        <v>272.1352367728036</v>
+        <v>501.4635764168325</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1352367728036</v>
+        <v>354.9290184437175</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>216.198193026333</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>102.8290574339123</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>735.5109632681573</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>507.2873450045464</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>272.1352367728036</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W33" t="n">
-        <v>272.1352367728036</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X33" t="n">
-        <v>272.1352367728036</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y33" t="n">
-        <v>272.1352367728036</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.7812428759814</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C36" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D36" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
         <v>110.334904905842</v>
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7053,13 +7055,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>778.0466648861338</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>570.195164680601</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="37">
@@ -7129,7 +7131,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7154,22 +7156,22 @@
         <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>109.4806348497715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>109.4806348497715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>109.4806348497715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>109.4806348497715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>109.4806348497715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.4806348497715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="X39" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>277.6959718698396</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K40" t="n">
         <v>19.28114311021272</v>
@@ -7348,34 +7350,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>696.9178196240985</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>458.0632807753398</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>458.0632807753398</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>331.0337992073036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>331.0337992073036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>331.0337992073036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>271.0172404866269</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>132.2864150692424</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>608.3392789286765</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>642.3680818020865</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>876.4694153277549</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>42.35474834916943</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>42.35474834916943</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>118.3517937444931</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>118.3517937444931</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>118.3517937444931</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>118.3517937444931</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>118.3517937444931</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>118.3517937444931</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X44" t="n">
-        <v>118.3517937444931</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.36807964162378</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>40.77139327069581</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>40.77139327069581</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>40.77139327069581</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>79.95943146291799</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>83.13413836268582</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>43.15042425981653</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>3.166710156947247</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W45" t="n">
-        <v>3.166710156947247</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>123.1178524655551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>178.1382567417148</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.8259673720848</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>176.5389081776</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M12" t="n">
-        <v>180.1185623197441</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9015,16 +9017,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,19 +9722,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,10 +10199,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2508595994748</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>165.7142402382929</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>267.3975919943167</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>115.0036391131605</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -22635,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>51.27160674604839</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22744,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.18449089043011</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>319.8175627926938</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22869,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>55.27774534968376</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22945,16 +22947,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>138.6379206569481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22963,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>157.361701111248</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>398.3711086526678</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23112,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>372.0105669137222</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23343,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>78.11655673476514</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="13">
@@ -23437,7 +23439,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>70.70604911564477</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>199.4461012748567</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.8590620500362</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>110.2852409793091</v>
+        <v>120.9881997240699</v>
       </c>
       <c r="S14" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="15">
@@ -23580,16 +23582,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23631,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="16">
@@ -23668,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,19 +23694,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>317.6203761059298</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23823,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>190.0358204194593</v>
       </c>
       <c r="U18" t="n">
-        <v>187.0697646493503</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.041529734255</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,13 +23943,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24048,19 +24050,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>80.23261035508229</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>154.6657448885195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,16 +24256,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>137.3012335147773</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>185.3219924627758</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24412,10 +24414,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>161.7172443298368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,10 +24496,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,25 +24524,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>82.43643527161383</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24576,16 +24578,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24683,13 +24685,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>403.6107296845148</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24728,22 +24730,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>45.31107689110593</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.31667898894985</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,13 +24967,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25002,10 +25004,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25014,10 +25016,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>6.684197670952472</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>145.5871694786053</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>128.1631918897635</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25096,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,7 +25159,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>146.5266243978776</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25245,10 +25247,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25293,7 +25295,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>67.54459744266225</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,25 +25396,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>405.0665496686753</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25485,7 +25487,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>22.93794741433324</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25533,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>44.58217180160733</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25567,13 +25569,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>24.98494807699674</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25588,7 +25590,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>184.4452938382188</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>128.8068983107365</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,13 +25718,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>85.65281925991394</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25761,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,10 +25833,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>319.8175627926938</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25962,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25992,22 +25994,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>136.8176922758487</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>160.580851732981</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>18.74806370369507</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>169.854427820673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26065,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26080,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841414</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.7837729881</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397933</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="C2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071921</v>
       </c>
       <c r="D2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071926</v>
       </c>
       <c r="E2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071924</v>
       </c>
       <c r="F2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="G2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
-        <v>99050.37600907717</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="P2" t="n">
-        <v>71053.6796537592</v>
+        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26454,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16801.53650439377</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>11897.85367509446</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9856.058660301904</v>
+        <v>8614.632621000448</v>
       </c>
       <c r="C6" t="n">
-        <v>23121.52625938482</v>
+        <v>23404.33862524469</v>
       </c>
       <c r="D6" t="n">
-        <v>23121.52625938482</v>
+        <v>23404.33862524474</v>
       </c>
       <c r="E6" t="n">
-        <v>56749.12625938482</v>
+        <v>57031.93862524472</v>
       </c>
       <c r="F6" t="n">
-        <v>56749.12625938482</v>
+        <v>57031.93862524468</v>
       </c>
       <c r="G6" t="n">
-        <v>55785.31907576995</v>
+        <v>14165.61021358456</v>
       </c>
       <c r="H6" t="n">
-        <v>15007.47814373181</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405686</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="J6" t="n">
-        <v>57771.16121025305</v>
+        <v>56581.12700406597</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405686</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405685</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="M6" t="n">
         <v>68128.04511405685</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405691</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="O6" t="n">
-        <v>67871.70710229893</v>
+        <v>20748.16689659307</v>
       </c>
       <c r="P6" t="n">
-        <v>56749.12625938484</v>
+        <v>68128.04511405688</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36440,19 +36442,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N30" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9091475161415</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37552,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>34.37252815495957</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>37.98452839772582</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373007.8661325562</v>
+        <v>267281.5962860414</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117581.913230949</v>
+        <v>5765385.89860145</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>170.6554636898984</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,22 +858,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.13217237922859</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>44.13217237922859</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>46.04559249352869</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>44.13217237922859</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.653131001028</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>38.87161743162454</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>117.3828121222395</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.65313100102799</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>21.85442600983729</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>10.12890827536234</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,23 +2080,23 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>67.21245520955647</v>
+        <v>62.43486741948623</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.18375537072436</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U24" t="n">
-        <v>40.61938961819902</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2715,61 +2715,61 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.26531605719669</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>127.3974220972098</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>21.18375537072436</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>82.71243518046261</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>39.82778746869524</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="I35" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>184.1503857182574</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,62 +3505,62 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>161.1908134018701</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3678,16 +3678,16 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3739,23 +3739,23 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X42" t="n">
-        <v>135.4141600157168</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X44" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>8.831844153734401</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4118,10 +4118,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>187.0249214997824</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>137.2644294849704</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>92.68647758675968</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>92.68647758675968</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>92.68647758675968</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W2" t="n">
-        <v>92.68647758675968</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>45.45613755060546</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>45.45613755060546</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>42.79483382228227</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>42.79483382228227</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>42.79483382228227</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3344187320537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>166.4370741486873</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>166.4370741486873</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>166.4370741486873</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>166.4370741486873</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>166.4370741486873</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>166.4370741486873</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X5" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>132.8378388614781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>176.5286895169144</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>176.5286895169144</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>137.2644294849704</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>137.2644294849704</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>137.2644294849704</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W6" t="n">
-        <v>137.2644294849704</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X6" t="n">
-        <v>137.2644294849704</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y6" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>70.60296187630945</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>70.60296187630945</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>70.60296187630945</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>121.8591222504766</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>121.8591222504766</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>121.8591222504766</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>121.8591222504766</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>121.8591222504766</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.68647758675968</v>
+        <v>378.9756972971371</v>
       </c>
       <c r="C9" t="n">
-        <v>48.10852568854899</v>
+        <v>204.52266801601</v>
       </c>
       <c r="D9" t="n">
-        <v>48.10852568854899</v>
+        <v>204.52266801601</v>
       </c>
       <c r="E9" t="n">
-        <v>48.10852568854899</v>
+        <v>204.52266801601</v>
       </c>
       <c r="F9" t="n">
-        <v>48.10852568854899</v>
+        <v>204.52266801601</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>65.79184259862555</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>65.79184259862555</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>89.14698820604177</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>176.5286895169144</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>137.2644294849704</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>137.2644294849704</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>137.2644294849704</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>137.2644294849704</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>137.2644294849704</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X9" t="n">
-        <v>137.2644294849704</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y9" t="n">
-        <v>137.2644294849704</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>137.2644294849704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X11" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.5286895169144</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>45.45613755060546</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.10852568854899</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C14" t="n">
-        <v>48.10852568854899</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D14" t="n">
-        <v>48.10852568854899</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E14" t="n">
-        <v>48.10852568854899</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U14" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V14" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W14" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X14" t="n">
-        <v>92.68647758675968</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.10852568854899</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.79483382228227</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C15" t="n">
-        <v>42.79483382228227</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D15" t="n">
-        <v>42.79483382228227</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>47.22142444577459</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>90.91227510121089</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
-        <v>134.6031257566472</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>570.9017844210196</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>570.9017844210196</v>
       </c>
       <c r="V15" t="n">
-        <v>131.9507376187037</v>
+        <v>570.9017844210196</v>
       </c>
       <c r="W15" t="n">
-        <v>87.37278572049297</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="X15" t="n">
-        <v>87.37278572049297</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="Y15" t="n">
-        <v>42.79483382228227</v>
+        <v>327.4530077769195</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>509.4769954460863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>482.1535401227612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>307.7005108416342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>953.8259350304722</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>725.6023167668613</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>725.6023167668613</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>482.1535401227612</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>482.1535401227612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>482.1535401227612</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5694,16 +5694,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5731,16 +5731,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>385.8949250843803</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="C21" t="n">
-        <v>385.8949250843803</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="D21" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5864,19 +5864,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W21" t="n">
-        <v>761.8705608694022</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X21" t="n">
-        <v>761.8705608694022</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y21" t="n">
-        <v>554.1102621044483</v>
+        <v>82.34666575615842</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>527.5764290961142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V23" t="n">
-        <v>527.5764290961142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W23" t="n">
-        <v>284.1276524520142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X23" t="n">
-        <v>284.1276524520142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.6788758079141</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>648.4405950311615</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>648.4405950311615</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>648.4405950311615</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6308,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6417,19 +6417,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>547.1910343172051</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C30" t="n">
-        <v>418.5067695725487</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D30" t="n">
-        <v>269.5723599112974</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>547.1910343172051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>547.1910343172051</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y30" t="n">
-        <v>547.1910343172051</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>527.5764290961142</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C32" t="n">
-        <v>527.5764290961142</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D32" t="n">
-        <v>527.5764290961142</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E32" t="n">
-        <v>284.1276524520142</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F32" t="n">
-        <v>40.6788758079141</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V32" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W32" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X32" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y32" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>501.4635764168325</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>354.9290184437175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>216.198193026333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>102.8290574339123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V33" t="n">
-        <v>660.701031422288</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>660.701031422288</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>660.701031422288</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.7999090013961</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>761.6974622895962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W35" t="n">
-        <v>761.6974622895962</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X35" t="n">
-        <v>761.6974622895962</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>778.0466648861338</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>570.195164680601</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7131,10 +7131,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7207,19 +7207,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7256,46 +7256,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>425.5489231905453</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>182.1001465464452</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7326,13 +7326,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7514,25 +7514,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>156.0631229240681</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
         <v>19.28114311021272</v>
@@ -7596,16 +7596,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>109.5807722530562</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C45" t="n">
-        <v>109.5807722530562</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D45" t="n">
-        <v>109.5807722530562</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E45" t="n">
-        <v>109.5807722530562</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F45" t="n">
-        <v>109.5807722530562</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G45" t="n">
         <v>109.5807722530562</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>298.4948343740486</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>109.5807722530562</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y45" t="n">
-        <v>109.5807722530562</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7827,31 +7827,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,19 +8774,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.3308283893217</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9248,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,10 +9257,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>349.0484638974528</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>378.6650540150651</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>51.27160674604839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>81.03951947102121</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>389.9444168792442</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22880,10 +22880,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>135.0341266295844</v>
       </c>
     </row>
     <row r="7">
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>157.361701111248</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23029,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>398.3711086526678</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.4010112706387</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>128.5763266090871</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>43.35104035788638</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23162,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23220,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23238,7 +23238,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>368.0044283100869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23311,7 +23311,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>161.5505233980758</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="13">
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>70.70604911564477</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>120.9881997240699</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>118.7734630237764</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>82.78191657258209</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>207.562810781691</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23670,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5740415064116</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,13 +23749,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>317.6203761059298</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>265.3359907678426</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>190.0358204194593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23934,19 +23934,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,13 +24016,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>80.23261035508229</v>
+        <v>85.01019814515251</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24104,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>361.5500862927562</v>
+        <v>312.3898338622054</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U24" t="n">
-        <v>185.3219924627758</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24414,10 +24414,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>241.6084167358175</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,25 +24524,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24578,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24685,16 +24685,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>403.6107296845148</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>45.31107689110593</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>107.544508198328</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>394.1189821444107</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25004,19 +25004,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>6.684197670952472</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>128.1631918897635</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25098,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25171,13 +25171,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>22.7597532753017</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25247,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,13 +25289,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>67.54459744266225</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>44.58217180160733</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25566,16 +25566,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>195.8925415817687</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X42" t="n">
-        <v>70.35882518776063</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X44" t="n">
-        <v>317.3055321907214</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25955,10 +25955,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>136.2373682396495</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25997,7 +25997,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>18.74806370369507</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26067,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841414</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
-        <v>71731.80321071921</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="E2" t="n">
-        <v>71731.80321071924</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="F2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="G2" t="n">
+        <v>99696.40351879931</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="I2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="H2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99696.40351879936</v>
-      </c>
       <c r="J2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="L2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8614.632621000448</v>
+        <v>-58486.9970375313</v>
       </c>
       <c r="C6" t="n">
-        <v>23404.33862524469</v>
+        <v>22282.43449401641</v>
       </c>
       <c r="D6" t="n">
-        <v>23404.33862524474</v>
+        <v>22282.43449401643</v>
       </c>
       <c r="E6" t="n">
-        <v>57031.93862524472</v>
+        <v>55910.03449401643</v>
       </c>
       <c r="F6" t="n">
-        <v>57031.93862524468</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="G6" t="n">
-        <v>14165.61021358456</v>
+        <v>55910.03449401636</v>
       </c>
       <c r="H6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="J6" t="n">
-        <v>56581.12700406597</v>
+        <v>-7149.90810508982</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="O6" t="n">
-        <v>20748.16689659307</v>
+        <v>55910.03449401644</v>
       </c>
       <c r="P6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.03449401638</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
-        <v>42.34905430330019</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.34905430330016</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,10 +35977,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36205,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267281.5962860414</v>
+        <v>361671.1651892323</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5765385.89860145</v>
+        <v>5117581.913230947</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W3" t="n">
-        <v>170.6554636898984</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
-        <v>62.4162677022923</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="V8" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>46.04559249352869</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T15" t="n">
-        <v>117.3828121222395</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="H16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,70 +1843,70 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>116.6930783966232</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>135.4141600157168</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>94.41048699370604</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>62.43486741948623</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>70.34400780127524</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>9.73723617201896</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2839,16 +2839,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>52.42556848774752</v>
+        <v>234.288905720311</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>98.22847700514947</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2967,43 +2967,43 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3113,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>92.91245007122475</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,40 +3201,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U36" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>139.0780371879869</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3678,52 +3678,52 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>68.31015748716332</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>65.13060206523731</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W44" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>8.831844153734401</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4146,43 +4146,43 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.57944215788615</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>22.57944215788615</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>22.57944215788615</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W2" t="n">
-        <v>509.4769954460863</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X2" t="n">
-        <v>266.0282188019862</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.57944215788615</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V3" t="n">
-        <v>399.5118995681682</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W6" t="n">
-        <v>298.4948343740486</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X6" t="n">
-        <v>90.64333416851576</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>378.9756972971371</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>204.52266801601</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>204.52266801601</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>204.52266801601</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F9" t="n">
-        <v>204.52266801601</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G9" t="n">
-        <v>65.79184259862555</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H9" t="n">
-        <v>65.79184259862555</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>547.1910343172051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>547.1910343172051</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>547.1910343172051</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>738.7078125165641</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F11" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U11" t="n">
-        <v>738.7078125165641</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V11" t="n">
-        <v>738.7078125165641</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W11" t="n">
-        <v>738.7078125165641</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X11" t="n">
-        <v>738.7078125165641</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y11" t="n">
-        <v>738.7078125165641</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>486.8488635328713</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N12" t="n">
-        <v>725.4530095217538</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U12" t="n">
-        <v>735.8335372470253</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V12" t="n">
-        <v>500.6814290152826</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W12" t="n">
-        <v>257.2326523711826</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X12" t="n">
-        <v>49.38115216564972</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.7186438601369</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>241.7186438601369</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>241.7186438601369</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>241.7186438601369</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>241.7186438601369</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T14" t="n">
-        <v>728.6161971483371</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U14" t="n">
-        <v>728.6161971483371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V14" t="n">
-        <v>728.6161971483371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W14" t="n">
-        <v>728.6161971483371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X14" t="n">
-        <v>728.6161971483371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y14" t="n">
-        <v>485.167420504237</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>327.4530077769195</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C15" t="n">
-        <v>327.4530077769195</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>178.5185981156682</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O15" t="n">
-        <v>851.8101010141643</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T15" t="n">
-        <v>570.9017844210196</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U15" t="n">
-        <v>570.9017844210196</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V15" t="n">
-        <v>570.9017844210196</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W15" t="n">
-        <v>327.4530077769195</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X15" t="n">
-        <v>327.4530077769195</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y15" t="n">
-        <v>327.4530077769195</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5600,40 +5600,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>634.6640077999109</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V18" t="n">
-        <v>399.5118995681682</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>156.0631229240681</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
         <v>19.28114311021272</v>
@@ -5694,22 +5694,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>290.1981659616912</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>82.34666575615842</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>82.34666575615842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6034,7 +6034,7 @@
         <v>577.2332497330343</v>
       </c>
       <c r="Y23" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="25">
@@ -6177,10 +6177,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6344,10 +6344,10 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6417,7 +6417,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>262.7299197543128</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>158.0119685275972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6651,22 +6651,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6733,19 +6733,19 @@
         <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>566.8500717543842</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6882,28 +6882,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>517.4848137278872</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V35" t="n">
-        <v>517.4848137278872</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W35" t="n">
-        <v>274.0360370837871</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X35" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,19 +7046,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>913.4938269565423</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>678.3417187247995</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
         <v>19.28114311021272</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7137,10 +7137,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>913.4938269565423</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>678.3417187247995</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7371,13 +7371,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7435,19 +7435,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U41" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W41" t="n">
         <v>262.7299197543128</v>
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>646.9074088293169</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>487.6699538238614</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>341.1353958507464</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>202.4045704333619</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>89.03543484094119</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7523,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="43">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
         <v>262.7299197543128</v>
@@ -7639,7 +7639,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7730,22 +7730,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7763,16 +7763,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7830,28 +7830,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P15" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9497,10 +9497,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10670,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10919,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>378.6650540150651</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>340.8501824613893</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
-        <v>81.03951947102121</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22752,16 +22752,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3148329761767</v>
+        <v>340.8501824613893</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>135.0341266295844</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22995,16 +22995,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.1551389805992</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>222.4647346907568</v>
       </c>
       <c r="V8" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>43.35104035788638</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23162,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23232,16 +23232,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>244.3218162447866</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C11" t="n">
-        <v>135.0690668140378</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>353.049451855182</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,7 +23311,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23466,16 +23466,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>195.0896117727101</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T15" t="n">
-        <v>82.78191657258209</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H16" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23700,13 +23700,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23776,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>265.3359907678426</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>70.35882518776063</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23934,13 +23934,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23983,7 +23983,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>299.3870928771938</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24053,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>85.01019814515251</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24101,13 +24101,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>312.3898338622054</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>311.5863622709866</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>101.40258158463</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24338,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24417,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24460,10 +24460,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24493,16 +24493,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.6084167358175</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>186.5643810956823</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24657,10 +24657,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>198.920084420089</v>
+        <v>17.05674718752553</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,7 +24815,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>107.544508198328</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24934,7 +24934,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>119.2616763733422</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25001,19 +25001,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>112.8605351322527</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>199.2828334142263</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>299.3870928771938</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25286,10 +25286,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25438,25 +25438,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>112.6169459729327</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>149.0074258151476</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>21.08647536425175</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>186.5643810956823</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25918,16 +25918,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W44" t="n">
-        <v>146.9462822885158</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25955,16 +25955,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>136.2373682396495</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -26003,16 +26003,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498601.1074841412</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498601.1074841412</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.4035187994</v>
+        <v>71731.80321071924</v>
       </c>
       <c r="C2" t="n">
+        <v>71731.80321071924</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71731.80321071923</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71731.80321071926</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71731.80321071926</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="D2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.40351879931</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99696.4035187994</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879943</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>12016.62850481742</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12016.62850481742</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12016.62850481742</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12016.62850481742</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12016.62850481742</v>
+      </c>
+      <c r="G4" t="n">
         <v>16914.68964098084</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16914.68964098084</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16914.68964098084</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16914.68964098084</v>
-      </c>
-      <c r="F4" t="n">
-        <v>16914.68964098084</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16914.68964098083</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58486.9970375313</v>
+        <v>7159.793223095778</v>
       </c>
       <c r="C6" t="n">
-        <v>22282.43449401641</v>
+        <v>21949.49922734001</v>
       </c>
       <c r="D6" t="n">
-        <v>22282.43449401643</v>
+        <v>21949.49922733999</v>
       </c>
       <c r="E6" t="n">
-        <v>55910.03449401643</v>
+        <v>55577.09922734002</v>
       </c>
       <c r="F6" t="n">
-        <v>55910.03449401641</v>
+        <v>55577.09922734002</v>
       </c>
       <c r="G6" t="n">
-        <v>55910.03449401636</v>
+        <v>12943.80915158052</v>
       </c>
       <c r="H6" t="n">
-        <v>55910.03449401642</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="I6" t="n">
-        <v>55910.03449401641</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="J6" t="n">
-        <v>-7149.90810508982</v>
+        <v>55359.32594206191</v>
       </c>
       <c r="K6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.24405205282</v>
       </c>
       <c r="L6" t="n">
-        <v>55910.03449401642</v>
+        <v>66906.24405205285</v>
       </c>
       <c r="M6" t="n">
-        <v>55910.03449401641</v>
+        <v>66906.2440520528</v>
       </c>
       <c r="N6" t="n">
-        <v>55910.03449401641</v>
+        <v>66906.24405205279</v>
       </c>
       <c r="O6" t="n">
-        <v>55910.03449401644</v>
+        <v>19526.36583458908</v>
       </c>
       <c r="P6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.24405205282</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1784674257276</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P15" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36217,10 +36217,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37639,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
       <c r="O45" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
